--- a/UseCaseIScenarij/scenarij-pretraga.xlsx
+++ b/UseCaseIScenarij/scenarij-pretraga.xlsx
@@ -30,9 +30,6 @@
     <t xml:space="preserve">Opis: </t>
   </si>
   <si>
-    <t>Korisnik traži određenu knjigu</t>
-  </si>
-  <si>
     <t>Glavni tok:</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
     <t>Preduvjeti</t>
   </si>
   <si>
-    <t xml:space="preserve">Korisnik ima pristup intefejsu </t>
-  </si>
-  <si>
     <t>Posljedice</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>Sistem:</t>
   </si>
   <si>
-    <t>1.Pristup aplikaciji</t>
-  </si>
-  <si>
     <t>3.Unos podataka</t>
   </si>
   <si>
@@ -73,6 +64,15 @@
   </si>
   <si>
     <t>2.Odabir kriterija po kojem se vrši pretraga</t>
+  </si>
+  <si>
+    <t>Kupac/gost traži određenu knjigu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kupac/gost ima pristup intefejsu </t>
+  </si>
+  <si>
+    <t>1.Pristup interfejsu</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,67 +452,67 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
